--- a/VotingData.xlsx
+++ b/VotingData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="21420" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -205,26 +205,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -544,411 +546,409 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" hidden="1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>345</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>135</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>64</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>199</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>57.68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>368</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>147</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>54</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>201</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>54.62</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>483</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>164</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>58</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>222</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>45.96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>363</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>204</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>46</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>250</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>68.87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>471</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>216</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="9">
         <v>60</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>276</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <v>58.6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="12" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="9">
         <v>504</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>152</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="9">
         <v>69</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <v>221</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="9">
         <v>43.85</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="12" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
         <v>192</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="10">
         <v>119</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="12" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>270</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>119</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <v>30</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>149</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>55.19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="12" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="12" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="10">
         <f>SUM(B4:B25)</f>
         <v>2804</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="10">
         <f>SUM(C4:C25)</f>
         <v>1137</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="10">
         <f>SUM(D4:D25)</f>
         <v>573</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="10">
         <f>SUM(E4:E25)</f>
         <v>1637</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="10">
         <f>E26/B26*100</f>
         <v>58.380884450784599</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="36" customHeight="1">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="36" customHeight="1">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="36" customHeight="1">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="36" customHeight="1">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="36" customHeight="1">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="5:6" ht="36" customHeight="1">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="5:6" ht="36" customHeight="1">
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="5:6" ht="36" customHeight="1">
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="5:6" ht="36" customHeight="1">
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="5:6" ht="36" customHeight="1">
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="5:6" ht="36" customHeight="1">
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="5:6" ht="36" customHeight="1">
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="5:6" ht="9" customHeight="1">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
@@ -963,11 +963,11 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="A2:A3"/>
@@ -983,23 +983,25 @@
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="B23:B25"/>

--- a/VotingData.xlsx
+++ b/VotingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="1800" windowWidth="21680" windowHeight="12520"/>
+    <workbookView xWindow="13640" yWindow="2580" windowWidth="13340" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Section</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Jim Gilmore</t>
+  </si>
+  <si>
+    <t>Registered Republicans</t>
+  </si>
+  <si>
+    <t>Registered Democrats</t>
   </si>
 </sst>
 </file>
@@ -473,16 +479,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,6 +494,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -859,49 +865,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="1">
         <v>191</v>
       </c>
+      <c r="K3" s="13">
+        <f>191/1437</f>
+        <v>0.13291579679888657</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
@@ -910,22 +920,22 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="22">
         <v>345</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="22">
         <v>135</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="22">
         <v>64</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="22">
         <v>199</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="22">
         <v>57.68</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -942,12 +952,12 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
@@ -962,12 +972,12 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="I6" s="1" t="s">
         <v>56</v>
       </c>
@@ -982,22 +992,22 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="22">
         <v>368</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="22">
         <v>147</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="22">
         <v>54</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="22">
         <v>201</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="22">
         <v>54.62</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1006,6 +1016,10 @@
       <c r="J7" s="1">
         <v>1367</v>
       </c>
+      <c r="K7" s="13">
+        <f>1367/1437</f>
+        <v>0.95128740431454417</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>86</v>
       </c>
@@ -1014,12 +1028,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="I8" s="1" t="s">
         <v>58</v>
       </c>
@@ -1034,12 +1048,12 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1054,22 +1068,22 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="22">
         <v>483</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="22">
         <v>164</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="22">
         <v>58</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="22">
         <v>222</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="22">
         <v>45.96</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1086,12 +1100,12 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1106,12 +1120,12 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="I12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1126,22 +1140,22 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="22">
         <v>363</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="22">
         <v>204</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="22">
         <v>46</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="22">
         <v>250</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="22">
         <v>68.87</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1150,52 +1164,61 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
       <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="1">
         <v>10</v>
       </c>
+      <c r="K14" s="13">
+        <f>10/200</f>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="I15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="1">
         <v>19</v>
       </c>
+      <c r="K15" s="13">
+        <f>19/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="22">
         <v>471</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="22">
         <v>216</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="22">
         <v>60</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="22">
         <v>276</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="22">
         <v>58.6</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1204,52 +1227,72 @@
       <c r="J16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="K16" s="13">
+        <f>13/200</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="I17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="1">
+        <f>21+26+39+37+23+30+24</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
       <c r="I18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="19" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="1">
+        <f>1637-200</f>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="22">
         <v>504</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="22">
         <v>152</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="22">
         <v>69</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="22">
         <v>221</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="22">
         <v>43.85</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1259,13 +1302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
       <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
@@ -1273,13 +1316,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="I21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1287,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="10" customFormat="1">
+    <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1301,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="10" customFormat="1">
+    <row r="23" spans="1:13" s="10" customFormat="1">
       <c r="A23" s="12"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1315,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24">
+    <row r="24" spans="1:13" ht="24">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1335,23 +1378,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="22">
         <v>270</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="22">
         <v>119</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="22">
         <v>30</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="22">
         <v>149</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="22">
         <v>55.19</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1361,13 +1404,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="I26" s="1" t="s">
         <v>74</v>
       </c>
@@ -1375,13 +1418,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
       <c r="I27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1389,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="10" customFormat="1">
+    <row r="29" spans="1:13" s="10" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1434,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="10" customFormat="1">
+    <row r="30" spans="1:13" s="10" customFormat="1">
       <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1448,9 +1491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+    <row r="31" spans="1:13">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
       <c r="I31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1458,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1490,8 +1533,8 @@
         <f>B32-E32</f>
         <v>747321</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1">
       <c r="B34" s="8"/>
@@ -1516,256 +1559,256 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="13">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="19">
         <v>788</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="19">
         <v>57</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="19">
         <v>27</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="19">
         <v>84</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="17">
         <v>0.1066</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="20"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="19">
         <v>680</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="19">
         <v>64</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="19">
         <v>17</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="19">
         <v>81</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="17">
         <v>0.1191</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="22"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="22"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="19">
         <v>350</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="19">
         <v>24</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="19">
         <v>7</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="19">
         <v>31</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="17">
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="22"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="22"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="19">
         <v>598</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="19">
         <v>29</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="19">
         <v>9</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="19">
         <v>38</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="17">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19">
         <v>70</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="19">
         <v>70</v>
       </c>
-      <c r="F57" s="22"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="19"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="22"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="19"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="22"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="19">
         <v>313</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="19">
         <v>32</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="19">
         <v>8</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="19">
         <v>40</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="17">
         <v>0.1278</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="19"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
@@ -1816,42 +1859,42 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="13">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
@@ -2050,42 +2093,42 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="13">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
@@ -2193,42 +2236,42 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="13">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="15" t="s">
+      <c r="A93" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
@@ -2368,54 +2411,50 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A56"/>
@@ -2440,50 +2479,54 @@
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
